--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -121,6 +121,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>佳能企業股份有限公司</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>10，000</t>
+  </si>
+  <si>
+    <t>2013-12-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -944,13 +956,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -969,13 +981,22 @@
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -987,18 +1008,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1010,18 +1040,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1033,18 +1072,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1056,41 +1104,59 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1102,18 +1168,27 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1125,18 +1200,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1148,18 +1232,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1171,18 +1264,27 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1194,18 +1296,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1217,18 +1328,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1240,18 +1360,27 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1263,18 +1392,27 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1286,18 +1424,27 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1309,18 +1456,27 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1332,18 +1488,27 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1355,18 +1520,27 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1378,18 +1552,27 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1401,18 +1584,27 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1424,18 +1616,27 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1447,18 +1648,27 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1470,18 +1680,27 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1493,18 +1712,27 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1516,18 +1744,27 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1539,21 +1776,30 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
         <v>9000</v>
@@ -1562,18 +1808,27 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1585,10 +1840,19 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -1606,22 +1870,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1629,7 +1893,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1641,7 +1905,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1662,13 +1926,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1676,10 +1940,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -1690,10 +1954,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1704,10 +1968,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -1718,10 +1982,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1732,10 +1996,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -1746,10 +2010,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1760,10 +2024,10 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1774,10 +2038,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -1788,10 +2052,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -1802,10 +2066,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1816,10 +2080,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1830,10 +2094,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1844,10 +2108,10 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1868,22 +2132,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1891,22 +2155,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1914,22 +2178,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1937,22 +2201,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1960,22 +2224,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1983,22 +2247,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2006,22 +2270,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2029,22 +2293,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
   <si>
     <t>土地坐落</t>
   </si>
@@ -121,6 +121,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -145,10 +148,10 @@
     <t>太平洋建設股份有限公司</t>
   </si>
   <si>
-    <t>台灣土地開發股份有限公 司</t>
-  </si>
-  <si>
-    <t>景岳生物科技股份有限公 司</t>
+    <t>台灣土地開發股份有限公司</t>
+  </si>
+  <si>
+    <t>景岳生物科技股份有限公司</t>
   </si>
   <si>
     <t>長鴻營造股份有限公司</t>
@@ -163,7 +166,7 @@
     <t>宜進實業股份有限公司</t>
   </si>
   <si>
-    <t>利奇機械工業股份有限公 司</t>
+    <t>利奇機械工業股份有限公司</t>
   </si>
   <si>
     <t>鑽全實業股份有限公司</t>
@@ -172,7 +175,7 @@
     <t>華新麗華股份有限公司</t>
   </si>
   <si>
-    <t>台灣玻璃工業股份有限公 司</t>
+    <t>台灣玻璃工業股份有限公司</t>
   </si>
   <si>
     <t>華邦電子股份有限公司</t>
@@ -184,25 +187,25 @@
     <t>中華航空股份有限公司</t>
   </si>
   <si>
-    <t>中華開發金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>玉山金融控股股份有限公 司</t>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>玉山金融控股股份有限公司</t>
   </si>
   <si>
     <t>璨圓光電股份有限公司</t>
   </si>
   <si>
-    <t>寶島光學科技股份有限公 司</t>
+    <t>寶島光學科技股份有限公司</t>
   </si>
   <si>
     <t>瀚宇彩晶股份有限公司</t>
   </si>
   <si>
-    <t>上福全球科技股份有限公 H]</t>
-  </si>
-  <si>
-    <t>富旺國際開發股份有限公 司</t>
+    <t>上福全球科技股份有限公H]</t>
+  </si>
+  <si>
+    <t>富旺國際開發股份有限公司</t>
   </si>
   <si>
     <t>寶滬深</t>
@@ -214,19 +217,22 @@
     <t>王惠美_</t>
   </si>
   <si>
-    <t>35，000</t>
+    <t>35000</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>65，000</t>
-  </si>
-  <si>
-    <t>20，000</t>
-  </si>
-  <si>
-    <t>10，000</t>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-27</t>
@@ -956,13 +962,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -990,13 +996,16 @@
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1008,27 +1017,30 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1040,27 +1052,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1072,27 +1087,30 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1104,59 +1122,65 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1168,27 +1192,30 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1200,27 +1227,30 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1232,27 +1262,30 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1264,27 +1297,30 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1296,27 +1332,30 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1328,27 +1367,30 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1360,27 +1402,30 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1392,27 +1437,30 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1424,27 +1472,30 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1456,27 +1507,30 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1488,27 +1542,30 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1520,27 +1577,30 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1552,27 +1612,30 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1584,27 +1647,30 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1616,27 +1682,30 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1648,27 +1717,30 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1680,27 +1752,30 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1712,27 +1787,30 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1744,27 +1822,30 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1776,30 +1857,33 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2">
         <v>9000</v>
@@ -1808,27 +1892,30 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1840,18 +1927,21 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
         <v>1729</v>
       </c>
     </row>
@@ -1870,22 +1960,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1893,7 +1983,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1905,7 +1995,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1926,13 +2016,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1940,10 +2030,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -1954,10 +2044,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1968,10 +2058,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -1982,10 +2072,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1996,10 +2086,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -2010,10 +2100,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -2024,10 +2114,10 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -2038,10 +2128,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -2052,10 +2142,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -2066,10 +2156,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2080,10 +2170,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -2094,10 +2184,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -2108,10 +2198,10 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -2132,22 +2222,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2155,22 +2245,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2178,22 +2268,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2201,22 +2291,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2224,22 +2314,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2247,22 +2337,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2270,22 +2360,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2293,22 +2383,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
   <si>
     <t>土地坐落</t>
   </si>
@@ -124,6 +124,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -133,6 +136,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>佳能企業股份有限公司</t>
   </si>
   <si>
@@ -211,10 +220,7 @@
     <t>寶滬深</t>
   </si>
   <si>
-    <t>F-中租</t>
-  </si>
-  <si>
-    <t>王惠美_</t>
+    <t>F中租</t>
   </si>
   <si>
     <t>35000</t>
@@ -235,7 +241,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-27</t>
+  </si>
+  <si>
+    <t>tmp299c1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -962,13 +974,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,13 +1011,22 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1017,30 +1038,39 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1052,30 +1082,39 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1087,30 +1126,39 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1122,65 +1170,83 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1192,30 +1258,39 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1227,30 +1302,39 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1262,30 +1346,39 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1297,30 +1390,39 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1332,30 +1434,39 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1367,30 +1478,39 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
+        <v>74</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1402,30 +1522,39 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1437,30 +1566,39 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="2">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1472,30 +1610,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="2">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1507,30 +1654,39 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="2">
+        <v>74</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1542,30 +1698,39 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="2">
+        <v>74</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1577,30 +1742,39 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="2">
+        <v>74</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1612,30 +1786,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="2">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1647,30 +1830,39 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="2">
         <v>70</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1682,30 +1874,39 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="2">
+        <v>74</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1717,30 +1918,39 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="2">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1752,30 +1962,39 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="2">
+        <v>74</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1787,30 +2006,39 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="2">
+        <v>74</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1822,30 +2050,39 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="2">
+        <v>74</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1857,33 +2094,42 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="2">
+        <v>74</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>9000</v>
@@ -1892,30 +2138,39 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="2">
+        <v>74</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1927,22 +2182,31 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="2">
+        <v>74</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
         <v>1729</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1960,22 +2224,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1983,7 +2247,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1995,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -2016,13 +2280,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2030,10 +2294,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -2044,10 +2308,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -2058,10 +2322,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -2072,10 +2336,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -2086,10 +2350,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -2100,10 +2364,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -2114,10 +2378,10 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -2128,10 +2392,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -2142,10 +2406,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -2156,10 +2420,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2170,10 +2434,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -2184,10 +2448,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -2198,10 +2462,10 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -2222,22 +2486,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2245,22 +2509,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2268,22 +2532,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2291,22 +2555,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2314,22 +2578,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2337,22 +2601,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2360,22 +2624,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2383,22 +2647,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,9 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="135">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港鎮山崙段04860000地號</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港鎮鹿德段05740000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>王惠美</t>
+  </si>
+  <si>
+    <t>100年02月16曰</t>
+  </si>
+  <si>
+    <t>86年08月05日</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>3080000</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-27</t>
+  </si>
+  <si>
+    <t>tmp299c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,40 +127,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣鹿港鎮山崙段0486-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港鎮鹿德段0574-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>王惠美</t>
-  </si>
-  <si>
-    <t>100 年 02 月16曰</t>
-  </si>
-  <si>
-    <t>86年08月 05日</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>3，080，000</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港鎮鹿德段00362-000 建號</t>
+    <t>彰化縣鹿港鎮鹿德段00362000建號</t>
   </si>
   <si>
     <t>買賣</t>
@@ -91,24 +142,18 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>中華 CL24SDA</t>
+    <t>中華CL24SDA</t>
   </si>
   <si>
     <t>周明亞</t>
   </si>
   <si>
-    <t>101 年 03 月16曰</t>
+    <t>101年03月16曰</t>
   </si>
   <si>
     <t>買賣.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -121,27 +166,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>佳能企業股份有限公司</t>
   </si>
   <si>
@@ -241,15 +265,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-27</t>
-  </si>
-  <si>
-    <t>tmp299c1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -295,37 +310,37 @@
     <t>J6055446至尊還本終身保險</t>
   </si>
   <si>
-    <t>J 6055445至尊還本終身保險</t>
+    <t>J6055445至尊還本終身保險</t>
   </si>
   <si>
     <t>H5081942安家保本終身壽險</t>
   </si>
   <si>
-    <t>N440147604新20年期增值分 紅養老壽險</t>
-  </si>
-  <si>
-    <t>N470210925 312還本終身保 險</t>
-  </si>
-  <si>
-    <t>N124823838-1CS安泰子女儲 蓄保險</t>
-  </si>
-  <si>
-    <t>N124823838-3ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>N225449516-2ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>N225858793-2ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>AR08319530新百年終身還本 壽險</t>
-  </si>
-  <si>
-    <t>ATM8628600吉祥如意終身壽 險</t>
-  </si>
-  <si>
-    <t>ATM8305870吉祥如意終身壽 險</t>
+    <t>N440147604新20年期增值分紅養老壽險</t>
+  </si>
+  <si>
+    <t>N470210925312還本終身保險</t>
+  </si>
+  <si>
+    <t>N1248238381CS安泰子女儲蓄保險</t>
+  </si>
+  <si>
+    <t>N1248238383ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>N2254495162ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>N2258587932ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>AR08319530新百年終身還本壽險</t>
+  </si>
+  <si>
+    <t>ATM8628600吉祥如意終身壽險</t>
+  </si>
+  <si>
+    <t>ATM8305870吉祥如意終身壽險</t>
   </si>
   <si>
     <t>種類</t>
@@ -337,7 +352,7 @@
     <t>債權人及地址</t>
   </si>
   <si>
-    <t>餘-額</t>
+    <t>餘額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
@@ -358,55 +373,55 @@
     <t>私人債務</t>
   </si>
   <si>
-    <t>彰化縣第六信用合作社 彰化縣福興鄉彰鹿路七段 397號</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港信用合作社 彰化縣鹿港鎮中山路234號</t>
-  </si>
-  <si>
-    <t>鹿港鎮農會 彰化縣鹿港鎮順興里建國路 7號</t>
-  </si>
-  <si>
-    <t>新光金控/新光人壽鹿港分 公司 彰化縣鹿港鎮民權路279號 6樓</t>
-  </si>
-  <si>
-    <t>張家槐 彰化縣鹿港鎮民族路</t>
-  </si>
-  <si>
-    <t>張皆福 彰化縣福興鄉橋頭村鹿興路</t>
-  </si>
-  <si>
-    <t>96年02月 09日</t>
-  </si>
-  <si>
-    <t>100年10月 30日</t>
-  </si>
-  <si>
-    <t>100年03月 01日</t>
-  </si>
-  <si>
-    <t>96年07月 25日</t>
-  </si>
-  <si>
-    <t>102年03月 10日</t>
-  </si>
-  <si>
-    <t>102年05月 30日</t>
-  </si>
-  <si>
-    <t>自用住宅購 屋</t>
-  </si>
-  <si>
-    <t>購買鹿信股 票</t>
+    <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路七段397號</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港信用合作社彰化縣鹿港鎮中山路234號</t>
+  </si>
+  <si>
+    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路7號</t>
+  </si>
+  <si>
+    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路279號6樓</t>
+  </si>
+  <si>
+    <t>張家槐彰化縣鹿港鎮民族路</t>
+  </si>
+  <si>
+    <t>張皆福彰化縣福興鄉橋頭村鹿興路</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>100年10月30日</t>
+  </si>
+  <si>
+    <t>100年03月01日</t>
+  </si>
+  <si>
+    <t>96年07月25日</t>
+  </si>
+  <si>
+    <t>102年03月10日</t>
+  </si>
+  <si>
+    <t>102年05月30日</t>
+  </si>
+  <si>
+    <t>自用住宅購屋</t>
+  </si>
+  <si>
+    <t>購買鹿信股票</t>
   </si>
   <si>
     <t>購買土地</t>
   </si>
   <si>
-    <t>供母親企業 資金運用</t>
-  </si>
-  <si>
-    <t>供岳母企業 資金運用</t>
+    <t>供母親企業資金運用</t>
+  </si>
+  <si>
+    <t>供岳母企業資金運用</t>
   </si>
   <si>
     <t>股票投資</t>
@@ -768,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,57 +811,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3444.49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>74.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -864,25 +942,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -890,25 +968,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>189.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -926,22 +1004,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -949,19 +1027,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>704000</v>
@@ -982,43 +1060,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1026,10 +1104,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -1038,28 +1116,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2">
         <v>1729</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>52</v>
@@ -1070,10 +1148,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>2200</v>
@@ -1082,28 +1160,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2">
         <v>1729</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>53</v>
@@ -1114,10 +1192,10 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>1020</v>
@@ -1126,28 +1204,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2">
         <v>1729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>54</v>
@@ -1158,10 +1236,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>5898</v>
@@ -1170,28 +1248,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2">
         <v>1729</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>55</v>
@@ -1202,40 +1280,40 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2">
         <v>1729</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
         <v>56</v>
@@ -1246,10 +1324,10 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>5307</v>
@@ -1258,28 +1336,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>1729</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2">
         <v>57</v>
@@ -1290,10 +1368,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>43000</v>
@@ -1302,28 +1380,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L8" s="2">
         <v>1729</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
         <v>58</v>
@@ -1334,10 +1412,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>7339</v>
@@ -1346,28 +1424,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L9" s="2">
         <v>1729</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2">
         <v>59</v>
@@ -1378,10 +1456,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>10000</v>
@@ -1390,28 +1468,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L10" s="2">
         <v>1729</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2">
         <v>60</v>
@@ -1422,10 +1500,10 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>6500</v>
@@ -1434,28 +1512,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L11" s="2">
         <v>1729</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2">
         <v>61</v>
@@ -1466,10 +1544,10 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>25000</v>
@@ -1478,28 +1556,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L12" s="2">
         <v>1729</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N12" s="2">
         <v>62</v>
@@ -1510,10 +1588,10 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>12000</v>
@@ -1522,28 +1600,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L13" s="2">
         <v>1729</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N13" s="2">
         <v>63</v>
@@ -1554,10 +1632,10 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>5000</v>
@@ -1566,28 +1644,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L14" s="2">
         <v>1729</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N14" s="2">
         <v>64</v>
@@ -1598,10 +1676,10 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>5000</v>
@@ -1610,28 +1688,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L15" s="2">
         <v>1729</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N15" s="2">
         <v>65</v>
@@ -1642,10 +1720,10 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
         <v>35000</v>
@@ -1654,28 +1732,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L16" s="2">
         <v>1729</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N16" s="2">
         <v>66</v>
@@ -1686,10 +1764,10 @@
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>30000</v>
@@ -1698,28 +1776,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L17" s="2">
         <v>1729</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N17" s="2">
         <v>67</v>
@@ -1730,10 +1808,10 @@
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <v>2000</v>
@@ -1742,28 +1820,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L18" s="2">
         <v>1729</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N18" s="2">
         <v>68</v>
@@ -1774,10 +1852,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2">
         <v>2000</v>
@@ -1786,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L19" s="2">
         <v>1729</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N19" s="2">
         <v>69</v>
@@ -1818,10 +1896,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
         <v>12000</v>
@@ -1830,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L20" s="2">
         <v>1729</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N20" s="2">
         <v>70</v>
@@ -1862,10 +1940,10 @@
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>4600</v>
@@ -1874,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L21" s="2">
         <v>1729</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N21" s="2">
         <v>72</v>
@@ -1906,10 +1984,10 @@
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>5000</v>
@@ -1918,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L22" s="2">
         <v>1729</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N22" s="2">
         <v>73</v>
@@ -1950,10 +2028,10 @@
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
         <v>1000</v>
@@ -1962,28 +2040,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L23" s="2">
         <v>1729</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N23" s="2">
         <v>74</v>
@@ -1994,10 +2072,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>45000</v>
@@ -2006,28 +2084,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L24" s="2">
         <v>1729</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N24" s="2">
         <v>75</v>
@@ -2038,10 +2116,10 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2">
         <v>4000</v>
@@ -2050,28 +2128,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L25" s="2">
         <v>1729</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N25" s="2">
         <v>76</v>
@@ -2082,10 +2160,10 @@
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2">
         <v>11000</v>
@@ -2094,28 +2172,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L26" s="2">
         <v>1729</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N26" s="2">
         <v>77</v>
@@ -2126,10 +2204,10 @@
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2">
         <v>9000</v>
@@ -2138,28 +2216,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L27" s="2">
         <v>1729</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N27" s="2">
         <v>78</v>
@@ -2170,10 +2248,10 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
         <v>1000</v>
@@ -2182,28 +2260,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L28" s="2">
         <v>1729</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N28" s="2">
         <v>79</v>
@@ -2224,22 +2302,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2247,10 +2325,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -2259,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -2280,13 +2358,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2294,13 +2372,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2308,13 +2386,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2322,13 +2400,13 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2336,13 +2414,13 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2350,13 +2428,13 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2364,13 +2442,13 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2378,13 +2456,13 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2392,13 +2470,13 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2406,13 +2484,13 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2420,13 +2498,13 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2434,13 +2512,13 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2448,13 +2526,13 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2462,13 +2540,13 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2486,22 +2564,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2509,22 +2587,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2532,22 +2610,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2555,22 +2633,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2578,22 +2656,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2601,22 +2679,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2624,22 +2702,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2647,22 +2725,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣鹿港鎮山崙段04860000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣鹿港鎮鹿德段05740000地號</t>
@@ -76,21 +79,12 @@
     <t>王惠美</t>
   </si>
   <si>
-    <t>100年02月16曰</t>
-  </si>
-  <si>
     <t>86年08月05日</t>
   </si>
   <si>
-    <t>拍賣</t>
-  </si>
-  <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>3080000</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -106,42 +100,12 @@
     <t>tmp299c1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>彰化縣鹿港鎮鹿德段00362000建號</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>中華CL24SDA</t>
   </si>
   <si>
@@ -163,12 +127,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>佳能企業股份有限公司</t>
-  </si>
-  <si>
     <t>陽明海運股份有限公司</t>
   </si>
   <si>
@@ -265,36 +223,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>彰化縣鹿港信用合作社</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>J1178428至尊還本終身保險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
@@ -304,9 +241,6 @@
     <t>新光人壽</t>
   </si>
   <si>
-    <t>J1178428至尊還本終身保險</t>
-  </si>
-  <si>
     <t>J6055446至尊還本終身保險</t>
   </si>
   <si>
@@ -343,27 +277,18 @@
     <t>ATM8305870吉祥如意終身壽險</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路七段397號</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>自用住宅購屋</t>
+  </si>
+  <si>
     <t>保單借款</t>
   </si>
   <si>
@@ -373,9 +298,6 @@
     <t>私人債務</t>
   </si>
   <si>
-    <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路七段397號</t>
-  </si>
-  <si>
     <t>彰化縣鹿港信用合作社彰化縣鹿港鎮中山路234號</t>
   </si>
   <si>
@@ -391,9 +313,6 @@
     <t>張皆福彰化縣福興鄉橋頭村鹿興路</t>
   </si>
   <si>
-    <t>96年02月09日</t>
-  </si>
-  <si>
     <t>100年10月30日</t>
   </si>
   <si>
@@ -407,9 +326,6 @@
   </si>
   <si>
     <t>102年05月30日</t>
-  </si>
-  <si>
-    <t>自用住宅購屋</t>
   </si>
   <si>
     <t>購買鹿信股票</t>
@@ -783,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,99 +748,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3444.49</v>
+        <v>74.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>1729</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>74.8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1729</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -934,59 +815,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>189.14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>189.14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -996,52 +851,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2378</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1">
         <v>704000</v>
       </c>
     </row>
@@ -1052,7 +884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1066,16 +898,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1101,541 +933,541 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1729</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>2200</v>
+        <v>1020</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
-        <v>22000</v>
+        <v>10200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1729</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>1020</v>
+        <v>5898</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
-        <v>10200</v>
+        <v>58980</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5898</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
-        <v>58980</v>
+        <v>350000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1729</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5307</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
-        <v>350000</v>
+        <v>53070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1729</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>5307</v>
+        <v>43000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
-        <v>53070</v>
+        <v>430000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>1729</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>43000</v>
+        <v>7339</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
-        <v>430000</v>
+        <v>73390</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>1729</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>7339</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2">
-        <v>73390</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>1729</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100000</v>
+        <v>62</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>1729</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>1729</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
         <v>1729</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2">
         <v>1729</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <v>5000</v>
@@ -1644,174 +1476,174 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="2">
         <v>1729</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2">
-        <v>50000</v>
+        <v>350000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2">
         <v>1729</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L16" s="2">
         <v>1729</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="2">
-        <v>300000</v>
+        <v>62</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2">
         <v>1729</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N17" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>2000</v>
@@ -1820,470 +1652,426 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2">
         <v>1729</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19" s="2">
         <v>1729</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>12000</v>
+        <v>4600</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2">
-        <v>120000</v>
+        <v>46000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20" s="2">
         <v>1729</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N20" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2">
-        <v>46000</v>
+        <v>50000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" s="2">
         <v>1729</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" s="2">
         <v>1729</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
-        <v>1000</v>
+        <v>45000</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G23" s="2">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23" s="2">
         <v>1729</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2">
         <v>76</v>
-      </c>
-      <c r="G24" s="2">
-        <v>450000</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2">
         <v>1729</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G26" s="2">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L26" s="2">
         <v>1729</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="2">
-        <v>90000</v>
+        <v>62</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L27" s="2">
         <v>1729</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="2">
         <v>79</v>
       </c>
     </row>
@@ -2294,7 +2082,232 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1">
+        <v>83500</v>
+      </c>
+      <c r="E1" s="1">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1">
+        <v>8350000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2302,445 +2315,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3647892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2497500</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2">
-        <v>83500</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8350000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="E4" s="2">
+        <v>373218</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>284180</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>112</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>113</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>115</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>116</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>117</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3647892</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>128</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2497500</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>130</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2">
-        <v>373218</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>132</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="2">
-        <v>284180</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>133</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣鹿港鎮山崙段04860000地號</t>
+  </si>
+  <si>
     <t>彰化縣鹿港鎮鹿德段05740000地號</t>
   </si>
   <si>
@@ -79,12 +82,21 @@
     <t>王惠美</t>
   </si>
   <si>
+    <t>100年02月16曰</t>
+  </si>
+  <si>
     <t>86年08月05日</t>
   </si>
   <si>
+    <t>拍賣</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
+    <t>3080000</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>佳能企業股份有限公司</t>
   </si>
   <si>
     <t>陽明海運股份有限公司</t>
@@ -699,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,54 +772,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>74.8</v>
+        <v>3444.49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1729</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
+        <v>3444.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>74.8</v>
       </c>
     </row>
@@ -815,33 +883,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>189.14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>189.14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -851,29 +999,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1">
         <v>2378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1">
+        <v>704000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
         <v>704000</v>
       </c>
     </row>
@@ -884,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,13 +1069,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -933,541 +1104,541 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1729</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>1020</v>
+        <v>2200</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
-        <v>10200</v>
+        <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1729</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>5898</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
-        <v>58980</v>
+        <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5898</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
-        <v>350000</v>
+        <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1729</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5307</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
-        <v>53070</v>
+        <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1729</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>43000</v>
+        <v>5307</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
-        <v>430000</v>
+        <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>1729</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>7339</v>
+        <v>43000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
-        <v>73390</v>
+        <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>1729</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>10000</v>
+        <v>7339</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
-        <v>100000</v>
+        <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>1729</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1729</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2">
-        <v>250000</v>
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1729</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2">
         <v>62</v>
-      </c>
-      <c r="G12" s="2">
-        <v>120000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>1729</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N13" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>5000</v>
@@ -1476,174 +1647,174 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <v>1729</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
-        <v>350000</v>
+        <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="2">
         <v>1729</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N15" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="2">
         <v>66</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="2">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="G17" s="2">
+        <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2">
         <v>1729</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>2000</v>
@@ -1652,426 +1823,470 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="2">
-        <v>20000</v>
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2">
         <v>1729</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N18" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="2">
         <v>1729</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N19" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2">
-        <v>46000</v>
+        <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2">
         <v>1729</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N20" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
-        <v>50000</v>
+        <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2">
         <v>1729</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N21" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="2">
         <v>1729</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N22" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>45000</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" s="2">
         <v>1729</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N23" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
-        <v>4000</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2">
-        <v>40000</v>
+        <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L24" s="2">
         <v>1729</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N24" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L25" s="2">
         <v>1729</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N25" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L26" s="2">
         <v>1729</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N26" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
         <v>79</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
         <v>1000</v>
       </c>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="2">
         <v>79</v>
       </c>
     </row>
@@ -2082,18 +2297,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -2102,9 +2317,32 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1">
+        <v>8350000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2">
+        <v>83500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2">
         <v>8350000</v>
       </c>
     </row>
@@ -2115,7 +2353,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2123,181 +2361,195 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>117</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2559,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2315,160 +2567,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>3647892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3647892</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2">
-        <v>4500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
-        <v>2497500</v>
+        <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
-        <v>373218</v>
+        <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
-        <v>284180</v>
+        <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
-        <v>2000000</v>
+        <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="E8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>中華CL24SDA</t>
@@ -999,53 +1002,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
-        <v>2378</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1">
-        <v>704000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>2378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>704000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1069,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1107,7 +1152,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1119,13 +1164,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1151,7 +1196,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1163,13 +1208,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1195,7 +1240,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1207,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1239,10 +1284,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>5898</v>
@@ -1251,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1283,25 +1328,25 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1327,7 +1372,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1339,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -1371,7 +1416,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -1383,13 +1428,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1415,10 +1460,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>7339</v>
@@ -1427,13 +1472,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1459,7 +1504,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -1471,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
@@ -1503,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1515,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
@@ -1547,7 +1592,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1559,13 +1604,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -1591,7 +1636,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1603,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
@@ -1635,7 +1680,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -1647,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
@@ -1679,7 +1724,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -1691,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
@@ -1723,7 +1768,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -1735,13 +1780,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>27</v>
@@ -1767,7 +1812,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -1779,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
@@ -1811,7 +1856,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1823,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
@@ -1855,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1867,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
@@ -1899,7 +1944,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -1911,13 +1956,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>27</v>
@@ -1943,7 +1988,7 @@
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -1955,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
@@ -1987,7 +2032,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -1999,13 +2044,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>27</v>
@@ -2031,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -2043,13 +2088,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>27</v>
@@ -2075,7 +2120,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -2087,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -2119,7 +2164,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -2131,13 +2176,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
@@ -2163,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -2175,13 +2220,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>27</v>
@@ -2207,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -2219,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>27</v>
@@ -2251,7 +2296,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -2263,13 +2308,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>27</v>
@@ -2305,10 +2350,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -2317,7 +2362,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -2328,10 +2373,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -2340,7 +2385,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -2361,10 +2406,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -2375,10 +2420,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2389,10 +2434,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -2403,10 +2448,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2417,10 +2462,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -2431,13 +2476,13 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2445,10 +2490,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -2459,13 +2504,13 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2473,10 +2518,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -2487,10 +2532,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2501,10 +2546,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -2515,10 +2560,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -2529,10 +2574,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -2543,13 +2588,13 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2567,22 +2612,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>3647892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2590,22 +2635,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2613,22 +2658,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2636,22 +2681,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2659,22 +2704,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2682,22 +2727,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2705,22 +2750,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2728,22 +2773,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -118,6 +118,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>買賣.</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>quantity</t>
@@ -968,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1054,25 +1060,25 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>2378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>704000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1114,13 +1120,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1152,7 +1158,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1164,13 +1170,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1196,7 +1202,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1208,13 +1214,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>22000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1240,7 +1246,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1252,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>10200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1284,10 +1290,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>5898</v>
@@ -1296,13 +1302,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>58980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1328,25 +1334,25 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>350000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1372,7 +1378,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1384,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>53070</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -1416,7 +1422,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -1428,13 +1434,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>430000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1460,10 +1466,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>7339</v>
@@ -1472,13 +1478,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>73390</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1504,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -1516,13 +1522,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
@@ -1548,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1560,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
@@ -1592,7 +1598,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1604,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -1636,7 +1642,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1648,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>120000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
@@ -1680,7 +1686,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -1692,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
@@ -1724,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -1736,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
         <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
@@ -1768,7 +1774,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -1780,13 +1786,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>350000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>27</v>
@@ -1812,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -1824,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
@@ -1856,7 +1862,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1868,13 +1874,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
@@ -1900,7 +1906,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1912,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2">
         <v>20000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
@@ -1944,7 +1950,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -1956,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>120000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>27</v>
@@ -1988,7 +1994,7 @@
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -2000,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>46000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
@@ -2032,7 +2038,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -2044,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
         <v>50000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>27</v>
@@ -2076,7 +2082,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -2088,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
         <v>10000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>27</v>
@@ -2120,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -2132,13 +2138,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2">
         <v>450000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -2164,7 +2170,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -2176,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
         <v>40000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
@@ -2208,7 +2214,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -2220,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2">
         <v>110000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>27</v>
@@ -2252,7 +2258,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -2264,13 +2270,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
         <v>90000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>27</v>
@@ -2296,7 +2302,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -2308,13 +2314,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>27</v>
@@ -2350,10 +2356,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -2362,7 +2368,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -2373,10 +2379,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -2385,7 +2391,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -2406,10 +2412,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -2420,10 +2426,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2434,10 +2440,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -2448,10 +2454,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2462,10 +2468,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -2476,13 +2482,13 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2490,10 +2496,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -2504,13 +2510,13 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2518,10 +2524,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -2532,10 +2538,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2546,10 +2552,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -2560,10 +2566,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -2574,10 +2580,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -2588,13 +2594,13 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2612,22 +2618,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>3647892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2635,22 +2641,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2658,22 +2664,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2681,22 +2687,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2704,22 +2710,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2727,22 +2733,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2750,22 +2756,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2773,22 +2779,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -12,15 +12,16 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -248,6 +249,12 @@
   </si>
   <si>
     <t>彰化縣鹿港信用合作社</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
+  </si>
+  <si>
+    <t>黃金存摺</t>
   </si>
   <si>
     <t>國華人壽</t>
@@ -2348,33 +2355,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1">
-        <v>83500</v>
-      </c>
-      <c r="E1" s="1">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1">
-        <v>8350000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>94</v>
       </c>
@@ -2395,6 +2423,27 @@
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2403,6 +2452,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>303780</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2412,10 +2547,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -2426,10 +2561,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2440,10 +2575,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -2454,10 +2589,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2468,10 +2603,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -2482,10 +2617,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
@@ -2496,10 +2631,10 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -2510,10 +2645,10 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -2524,10 +2659,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -2538,10 +2673,10 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2552,10 +2687,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -2566,10 +2701,10 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -2580,10 +2715,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -2594,10 +2729,10 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -2608,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2618,22 +2753,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>3647892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2641,22 +2776,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2664,22 +2799,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2687,22 +2822,22 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2710,22 +2845,22 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2733,22 +2868,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2756,22 +2891,22 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2779,22 +2914,22 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
+++ b/legislator/property/output/normal/王惠美_2013-12-27_財產申報表_tmp299c1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -257,21 +257,27 @@
     <t>黃金存摺</t>
   </si>
   <si>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>安泰人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>J1178428至尊還本終身保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>安泰人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>J6055446至尊還本終身保險</t>
   </si>
   <si>
@@ -308,57 +314,66 @@
     <t>ATM8305870吉祥如意終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>保單借款</t>
+  </si>
+  <si>
+    <t>保單借款.</t>
+  </si>
+  <si>
+    <t>私人債務</t>
+  </si>
+  <si>
     <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路七段397號</t>
   </si>
   <si>
+    <t>彰化縣鹿港信用合作社彰化縣鹿港鎮中山路234號</t>
+  </si>
+  <si>
+    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路7號</t>
+  </si>
+  <si>
+    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路279號6樓</t>
+  </si>
+  <si>
+    <t>張家槐彰化縣鹿港鎮民族路</t>
+  </si>
+  <si>
+    <t>張皆福彰化縣福興鄉橋頭村鹿興路</t>
+  </si>
+  <si>
     <t>96年02月09日</t>
   </si>
   <si>
+    <t>100年10月30日</t>
+  </si>
+  <si>
+    <t>100年03月01日</t>
+  </si>
+  <si>
+    <t>96年07月25日</t>
+  </si>
+  <si>
+    <t>102年03月10日</t>
+  </si>
+  <si>
+    <t>102年05月30日</t>
+  </si>
+  <si>
     <t>自用住宅購屋</t>
   </si>
   <si>
-    <t>保單借款</t>
-  </si>
-  <si>
-    <t>保單借款.</t>
-  </si>
-  <si>
-    <t>私人債務</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港信用合作社彰化縣鹿港鎮中山路234號</t>
-  </si>
-  <si>
-    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路7號</t>
-  </si>
-  <si>
-    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路279號6樓</t>
-  </si>
-  <si>
-    <t>張家槐彰化縣鹿港鎮民族路</t>
-  </si>
-  <si>
-    <t>張皆福彰化縣福興鄉橋頭村鹿興路</t>
-  </si>
-  <si>
-    <t>100年10月30日</t>
-  </si>
-  <si>
-    <t>100年03月01日</t>
-  </si>
-  <si>
-    <t>96年07月25日</t>
-  </si>
-  <si>
-    <t>102年03月10日</t>
-  </si>
-  <si>
-    <t>102年05月30日</t>
-  </si>
-  <si>
     <t>購買鹿信股票</t>
   </si>
   <si>
@@ -372,6 +387,9 @@
   </si>
   <si>
     <t>股票投資</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2529,7 @@
         <v>303780</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -2539,203 +2557,497 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2745,191 +3057,359 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3647892</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>3647892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2">
         <v>2497500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2">
         <v>373218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2">
         <v>284180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2">
         <v>2000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2">
         <v>2000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
